--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_251.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_251.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_279</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1456043956043956</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['C:maj', 'F/5', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[('0:00:10.619000', '0:00:16.742000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1476833976833977</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D']]</t>
-        </is>
+          <t>isophonics_232</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_144</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1287878787878788</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['A:min', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(33.016, 39.805)]</t>
+          <t>[['E:min', 'D', 'E']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(175.57, 179.38)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:12.510317', '0:00:18.071496')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:44.544000', '0:00:49.922000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_191</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1298449612403101</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['B', 'Gb', 'B', 'Gb']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1884615384615385</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(15.552131, 23.667505)]</t>
+          <t>[['C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(29.44, 31.94)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:25.480000', '0:00:32.760000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:07.702000', '0:00:13.841000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_42</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
-        </is>
+          <t>isophonics_39</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07944208611279563</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F'], ['F', 'F', 'F'], ['F', 'F', 'F:7']]</t>
+          <t>[['A', 'D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(24.29, 28.79), (8.7, 12.06), (29.9, 33.22)]</t>
+          <t>[['A', 'D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(41.77, 53.98), (83.05, 97.44), (44.18, 54.59)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:00.656213', '0:00:06.319079')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:20.567641', '0:00:27.754217')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.09914320685434516</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'C', 'G'], ['G', 'G', 'C', 'G'], ['G', 'C', 'G', 'G']]</t>
-        </is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09855072463768116</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C', 'G/3'], ['G', 'G', 'C', 'G/3'], ['G', 'C', 'G', 'G:maj(*1)/5']]</t>
+          <t>[['B:dim7', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(19.518117, 24.661337), (9.231677, 14.374897), (21.213174, 25.532085)]</t>
+          <t>[['C:dim7', 'C#:maj', 'F#:maj/A#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(102.452811, 112.344512), (14.628775, 26.43068), (44.728004, 53.981156)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:17.769637', '0:00:22.996281')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:18.140000', '0:00:21.440000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(75.8, 79.6)]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A/3']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:26.280000', '0:02:29.120000'), ('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:12.743000', '0:00:16.216000'), ('0:00:13.527000', '0:00:17.058000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1440993788819876</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(19.14, 22.86)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(46.75, 47.79)]</t>
+          <t>[('0:00:59.900000', '0:01:09.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:21.780000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(62.48, 64.92)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_73</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.02840136054421769</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#/F', 'F:7', 'A#']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(271.22, 275.78)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(19.13, 20.83)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:02.360000', '0:00:11.660000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1019585253456221</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(11.82, 17.361)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(37.738798, 41.70941)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3980769230769231</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min'], ['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(21.94, 27.52), (242.22, 246.98)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82), (17.94, 20.7)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5050505050505051</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4307692307692308</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.2, 26.6)]</t>
+          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_84</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.04507839721254355</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj7', 'F:maj7'], ['G:min7', 'C:7', 'F:maj7']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db:maj7', 'Db:maj7'], ['Eb:min7', 'Ab:7', 'Db:maj7']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(4.76, 7.92), (10.28, 12.63)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(23.98, 29.46), (22.17, 27.62)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.05253077975376197</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G/3', 'G:min/b3', 'D:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(49.58, 52.97)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(64.294, 67.223)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:10.840000', '0:01:35.200000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07898351648351648</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(24.12, 27.0)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(7.0, 8.72)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(23.04, 32.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(53.46, 63.98)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+          <t>[('0:00:16.880000', '0:01:00.840000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
